--- a/giant_auth/TABLE정보giant_auth.xlsx
+++ b/giant_auth/TABLE정보giant_auth.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prd_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIRM</t>
   </si>
   <si>
@@ -373,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>암호키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +378,59 @@
   </si>
   <si>
     <t>ath_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssn_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chp_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updt_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>hostchallenge</t>
+  </si>
+  <si>
+    <t>latest_msk_uid</t>
+  </si>
+  <si>
+    <t>msk_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,35 +565,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,11 +896,11 @@
   <dimension ref="B2:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -898,7 +943,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -936,20 +981,24 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
@@ -958,99 +1007,101 @@
         <v>15</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
@@ -1058,40 +1109,38 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
@@ -1099,18 +1148,16 @@
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
@@ -1121,10 +1168,10 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
@@ -1135,21 +1182,21 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>5</v>
@@ -1157,112 +1204,112 @@
       <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>5</v>
@@ -1270,131 +1317,199 @@
       <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="18"/>
+      <c r="C35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="4" t="s">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1402,7 +1517,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1410,63 +1525,63 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="4"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1474,55 +1589,55 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="8"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="14"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1530,7 +1645,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1538,7 +1653,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1546,7 +1661,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1554,7 +1669,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1562,34 +1677,35 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="16"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B13:B22"/>
+  <mergeCells count="10">
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B21"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1620,317 +1736,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="8">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7">
         <v>64</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7">
         <v>64</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="8">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="8">
-        <v>64</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="8">
-        <v>64</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="8">
+        <v>53</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="8">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="8">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7">
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>63</v>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1963,35 +2079,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/giant_auth/TABLE정보giant_auth.xlsx
+++ b/giant_auth/TABLE정보giant_auth.xlsx
@@ -141,10 +141,6 @@
     <t>CONFIRM</t>
   </si>
   <si>
-    <t>CHIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MASTERKEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msk_uid</t>
   </si>
   <si>
@@ -373,18 +365,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ath_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SESSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>updt_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,6 +412,22 @@
   <si>
     <t>msk_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>masterkey</t>
+  </si>
+  <si>
+    <t>session</t>
   </si>
 </sst>
 </file>
@@ -543,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,9 +592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -896,11 +889,11 @@
   <dimension ref="B2:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -914,19 +907,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -934,16 +927,16 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>31</v>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -962,7 +955,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -980,7 +973,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
@@ -996,9 +989,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
@@ -1010,12 +1003,12 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -1024,7 +1017,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1031,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +1047,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,8 +1063,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>90</v>
+      <c r="B12" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -1090,9 +1083,9 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1108,12 +1101,12 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
@@ -1122,7 +1115,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1131,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1145,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1159,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1180,7 +1173,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1187,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1203,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1219,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>85</v>
+      <c r="B22" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1246,9 +1239,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1264,9 +1257,9 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
@@ -1275,14 +1268,14 @@
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>27</v>
@@ -1293,7 +1286,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1300,7 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1316,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
@@ -1339,8 +1332,8 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>92</v>
+      <c r="B29" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -1349,37 +1342,37 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -1391,9 +1384,9 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -1405,9 +1398,9 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1419,9 +1412,9 @@
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>25</v>
@@ -1433,12 +1426,12 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -1447,29 +1440,29 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>6</v>
@@ -1477,12 +1470,12 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
@@ -1701,11 +1694,7 @@
       <c r="G64" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B21"/>
+  <mergeCells count="6">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1737,316 +1726,316 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>70</v>
+      <c r="A2" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7">
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7">
         <v>64</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="7">
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7">
         <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>38</v>
+      <c r="A6" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="C12" s="7">
         <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="7" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7">
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>66</v>
+      <c r="A19" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7">
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="7" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2080,34 +2069,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/giant_auth/TABLE정보giant_auth.xlsx
+++ b/giant_auth/TABLE정보giant_auth.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="105">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,10 +408,6 @@
   </si>
   <si>
     <t>latest_msk_uid</t>
-  </si>
-  <si>
-    <t>msk_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(40)</t>
@@ -886,14 +882,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G64"/>
+  <dimension ref="B2:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B38"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -936,7 +932,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1064,7 +1060,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -1220,7 +1216,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1333,7 +1329,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -1386,7 +1382,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -1399,25 +1395,25 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
-      <c r="C33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="16"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -1428,21 +1424,21 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>5</v>
@@ -1450,56 +1446,50 @@
       <c r="E36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="4" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="7"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
@@ -1515,7 +1505,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
@@ -1526,7 +1516,7 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1534,16 +1524,16 @@
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="7"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1551,27 +1541,27 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="2"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="14"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="14"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="14"/>
@@ -1579,7 +1569,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
@@ -1590,7 +1580,7 @@
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1598,36 +1588,36 @@
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="7"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="14"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="10"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="14"/>
@@ -1667,7 +1657,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
@@ -1678,20 +1668,12 @@
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/giant_auth/TABLE정보giant_auth.xlsx
+++ b/giant_auth/TABLE정보giant_auth.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="105">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,77 +353,77 @@
     <t>msk_uid</t>
   </si>
   <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssn_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chp_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updt_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>hostchallenge</t>
+  </si>
+  <si>
+    <t>latest_msk_uid</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>masterkey</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
     <t>msk_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ath_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssn_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chp_uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updt_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>hostchallenge</t>
-  </si>
-  <si>
-    <t>latest_msk_uid</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t>auth</t>
-  </si>
-  <si>
-    <t>masterkey</t>
-  </si>
-  <si>
-    <t>session</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,14 +885,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G63"/>
+  <dimension ref="B2:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -903,36 +906,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -1081,7 +1084,7 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1237,7 +1240,7 @@
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -1264,14 +1267,14 @@
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>27</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -1338,37 +1341,37 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -1381,39 +1384,39 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
-      <c r="C32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
-      <c r="C33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -1424,72 +1427,78 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="4" t="s">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
@@ -1505,7 +1514,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
@@ -1516,7 +1525,7 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1524,16 +1533,16 @@
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1541,27 +1550,27 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="14"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="14"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="14"/>
@@ -1569,7 +1578,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
@@ -1580,7 +1589,7 @@
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1588,36 +1597,36 @@
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="14"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="14"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="14"/>
@@ -1657,7 +1666,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
@@ -1668,12 +1677,20 @@
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="15"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1724,7 +1741,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1739,7 +1756,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="7" t="s">
         <v>64</v>
       </c>
@@ -1754,7 +1771,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1769,7 +1786,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="7" t="s">
         <v>64</v>
       </c>
@@ -1782,7 +1799,7 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1797,7 +1814,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1812,7 +1829,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
@@ -1827,7 +1844,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11" t="s">
         <v>75</v>
       </c>
@@ -1838,7 +1855,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
@@ -1851,7 +1868,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1864,7 +1881,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1879,7 +1896,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
@@ -1892,7 +1909,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1905,7 +1922,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1922,7 +1939,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
@@ -1935,7 +1952,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1952,7 +1969,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="7" t="s">
         <v>56</v>
       </c>
@@ -1965,7 +1982,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1982,7 +1999,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="7" t="s">
         <v>68</v>
       </c>
@@ -1995,7 +2012,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7" t="s">
         <v>59</v>
       </c>
@@ -2008,7 +2025,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
